--- a/console/Networking/iaas网络与容器中文提取/dockerExcel/components/create_advancedSettingsBox.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/dockerExcel/components/create_advancedSettingsBox.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -581,18 +576,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>启动项</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>create_advancedSettingsBox_i18nKey_25</t>
     </r>
   </si>
@@ -773,18 +756,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Run Commands</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Run Commands at the Time of Starting a Container</t>
     </r>
   </si>
@@ -809,30 +780,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The first command run at the time of starting a container will replace Entrypoint commands in images</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Run Parameter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Where there are several run parameters, please separate them with '</t>
     </r>
   </si>
@@ -869,18 +816,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Environment Variable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">'Environment variable number has reached the cap' </t>
     </r>
   </si>
@@ -1001,18 +936,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Enter machine name of container</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>If no setting is made, please use the container ID as the machine name</t>
     </r>
   </si>
@@ -1026,54 +949,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>The machine name only supports the number, the upper case and lower case letter, the line-through “-” and “.”, “-” or “.” cannot be used as the starting character and ending character of the name, and cannot exceed 63 characters.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Starting Option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A pseudo terminal is distributed to the container when the container is enabled</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'TTY Enabled'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'TTY Disabled'</t>
     </r>
   </si>
   <si>
@@ -1118,6 +993,50 @@
   </si>
   <si>
     <t>运行的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first command run at the time of starting a container will replace Entrypoint commands in images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A pseudo-TTY is allocated when TTY is enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter machine name of container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run Commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment Variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,7 +1044,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1146,6 +1065,19 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1169,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1178,6 +1110,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1519,20 +1462,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="73.88671875" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1540,10 +1484,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1551,10 +1498,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1562,10 +1509,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1573,10 +1520,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1584,21 +1531,21 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1606,10 +1553,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1617,10 +1564,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1628,10 +1575,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1639,10 +1586,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1650,10 +1597,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,10 +1608,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1672,10 +1619,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1683,10 +1630,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1694,10 +1641,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1705,10 +1652,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1716,10 +1663,10 @@
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1727,10 +1674,10 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1738,10 +1685,10 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,10 +1696,10 @@
         <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1760,10 +1707,10 @@
         <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1771,10 +1718,10 @@
         <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1782,102 +1729,106 @@
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B5 A7:B31 A6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B5 A7:B23 A6 A25:B31 A24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>